--- a/论文集.xlsx
+++ b/论文集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>编号</t>
   </si>
@@ -39,6 +39,9 @@
     <t>简介</t>
   </si>
   <si>
+    <t>想法</t>
+  </si>
+  <si>
     <t>Cantilever Inverse Taper Coupler With SiO2 Gap for Submicrometer Silicon Waveguide</t>
   </si>
   <si>
@@ -66,13 +69,48 @@
     <t>应用于芯片上高速原子力显微镜的硅波导悬臂位移传感器</t>
   </si>
   <si>
+    <t>1和2的总结性文章</t>
+  </si>
+  <si>
     <t>Analytical Modeling For Determination Of Pull-in Voltage For an Electrostatic Actuated MEMS Cantilever Beam</t>
   </si>
   <si>
-    <t>参考-悬臂弯曲与静电驱动关系</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针对静电驱动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MEMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>悬臂梁拉入电压测定的分析建模</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>Leow CHeah Wei</t>
     </r>
     <r>
@@ -97,6 +135,9 @@
   <si>
     <t>ICSE</t>
   </si>
+  <si>
+    <t>悬臂梁弯曲度与拉入电压之间的关系：通过分析直、弯、混合悬臂梁的性能特点，基于有限元法，得出引入电压和悬臂梁偏移（曲率）之间的关系，使得测量结果更加精确。</t>
+  </si>
 </sst>
 </file>
 
@@ -104,13 +145,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -123,98 +171,88 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,51 +274,72 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,197 +348,399 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,54 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -565,189 +778,225 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,124 +1346,147 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="86.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.125" customWidth="1"/>
-    <col min="4" max="4" width="43.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="35.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="43" customHeight="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="2" ht="60.75" spans="1:8">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17">
         <v>2017</v>
       </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3" ht="45" spans="1:8">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2">
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17">
         <v>2015</v>
       </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" ht="60" spans="1:8">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F4" s="17">
         <v>2018</v>
       </c>
+      <c r="G4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5" ht="75" spans="1:8">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2">
+      <c r="D5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="17">
         <v>2002</v>
       </c>
+      <c r="G5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
